--- a/Files/test.xlsx
+++ b/Files/test.xlsx
@@ -1,42 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\AutoSend\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BAD83A-FD2A-449D-91B2-CF3D8F4AC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-27630" yWindow="1170" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2700" yWindow="1305" windowWidth="21600" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>SANTI</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>belu</t>
+  </si>
+  <si>
+    <t>ine</t>
+  </si>
+  <si>
+    <t>apicultura</t>
+  </si>
+  <si>
+    <t>oficina</t>
+  </si>
+  <si>
+    <t>santi oficina</t>
+  </si>
+  <si>
+    <t>santi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,82 +101,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,115 +386,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="21.140625" customWidth="1" min="1" max="1"/>
-    <col width="64.7109375" customWidth="1" min="2" max="2"/>
-    <col width="12" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Telefono</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>bauti</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>543385448553</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>347215580579</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>marce</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>543385448553</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>mario</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>543385448553</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>351158072567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>351152302948</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>5493516338162</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>guille</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>543385448553</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>otro</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>543385448553</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>351157053486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>351156667756</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>351158072572</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3385590484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>351156667790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>347215580579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Files/test.xlsx
+++ b/Files/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\AutoSend\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BAD83A-FD2A-449D-91B2-CF3D8F4AC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037921B9-D21F-4623-861E-929CF99ADDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1305" windowWidth="21600" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Nombre</t>
   </si>
@@ -46,18 +46,6 @@
   </si>
   <si>
     <t>ine</t>
-  </si>
-  <si>
-    <t>apicultura</t>
-  </si>
-  <si>
-    <t>oficina</t>
-  </si>
-  <si>
-    <t>santi oficina</t>
-  </si>
-  <si>
-    <t>santi</t>
   </si>
 </sst>
 </file>
@@ -101,12 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +376,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,11 +396,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>347215580579</v>
+      <c r="B2" s="1">
+        <v>3385448553</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -424,19 +410,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>351158072567</v>
+      <c r="B3" s="1">
+        <v>3385590484</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>351152302948</v>
+      <c r="B4" s="1">
+        <v>3385590484</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -449,20 +435,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
-        <v>351157053486</v>
+      <c r="B5" s="1">
+        <v>3385448553</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>351156667756</v>
-      </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -471,30 +451,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>351158072572</v>
-      </c>
       <c r="G7" s="1">
         <v>3385590484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>351156667790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>347215580579</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
